--- a/R/relatorios/2021.xlsx
+++ b/R/relatorios/2021.xlsx
@@ -9,14 +9,32 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="0uy6/wyTGS4HssnlnwKHQFq8NaXXE69EmwKBek6aP3Q="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="nM4G44AysCRqAs9EHjcn+j8GvC7lKOpF7k6uIw+2M1Y="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="178">
+  <si>
+    <t>ANO</t>
+  </si>
+  <si>
+    <t>SEMESTRE</t>
+  </si>
+  <si>
+    <t>COD_DISCIPLINA</t>
+  </si>
+  <si>
+    <t>NOME_DISCIPLINA</t>
+  </si>
+  <si>
+    <t>SIGLA</t>
+  </si>
+  <si>
+    <t>TOTAL_ALUNOS</t>
+  </si>
   <si>
     <t>1. Semestre</t>
   </si>
@@ -790,23 +808,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1">
-        <v>2021.0</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>23.0</v>
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -814,19 +832,19 @@
         <v>2021.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>13.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -834,19 +852,19 @@
         <v>2021.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -854,19 +872,19 @@
         <v>2021.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -874,19 +892,19 @@
         <v>2021.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
-        <v>47.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -894,19 +912,19 @@
         <v>2021.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1">
-        <v>7.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -914,19 +932,19 @@
         <v>2021.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -934,19 +952,19 @@
         <v>2021.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -954,19 +972,19 @@
         <v>2021.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -974,19 +992,19 @@
         <v>2021.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -994,19 +1012,19 @@
         <v>2021.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1">
-        <v>9.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -1014,19 +1032,19 @@
         <v>2021.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -1034,19 +1052,19 @@
         <v>2021.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -1054,19 +1072,19 @@
         <v>2021.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -1074,19 +1092,19 @@
         <v>2021.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -1094,19 +1112,19 @@
         <v>2021.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -1114,19 +1132,19 @@
         <v>2021.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
@@ -1134,19 +1152,19 @@
         <v>2021.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -1154,19 +1172,19 @@
         <v>2021.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -1174,19 +1192,19 @@
         <v>2021.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -1194,19 +1212,19 @@
         <v>2021.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
@@ -1214,19 +1232,19 @@
         <v>2021.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F22" s="1">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -1234,19 +1252,19 @@
         <v>2021.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -1254,19 +1272,19 @@
         <v>2021.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F24" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -1274,19 +1292,19 @@
         <v>2021.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
@@ -1294,19 +1312,19 @@
         <v>2021.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
@@ -1314,19 +1332,19 @@
         <v>2021.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
@@ -1334,19 +1352,19 @@
         <v>2021.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F28" s="1">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
@@ -1354,19 +1372,19 @@
         <v>2021.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
@@ -1374,16 +1392,16 @@
         <v>2021.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F30" s="1">
         <v>8.0</v>
@@ -1394,19 +1412,19 @@
         <v>2021.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
@@ -1414,19 +1432,19 @@
         <v>2021.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F32" s="1">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
@@ -1434,19 +1452,19 @@
         <v>2021.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1">
-        <v>38.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
@@ -1454,19 +1472,19 @@
         <v>2021.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F34" s="1">
-        <v>7.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
@@ -1474,16 +1492,16 @@
         <v>2021.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F35" s="1">
         <v>7.0</v>
@@ -1494,19 +1512,19 @@
         <v>2021.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
@@ -1514,19 +1532,19 @@
         <v>2021.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
@@ -1534,19 +1552,19 @@
         <v>2021.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F38" s="1">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
@@ -1554,19 +1572,19 @@
         <v>2021.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F39" s="1">
-        <v>19.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
@@ -1574,19 +1592,19 @@
         <v>2021.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F40" s="1">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
@@ -1594,19 +1612,19 @@
         <v>2021.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F41" s="1">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
@@ -1614,16 +1632,16 @@
         <v>2021.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F42" s="1">
         <v>1.0</v>
@@ -1634,19 +1652,19 @@
         <v>2021.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F43" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
@@ -1654,16 +1672,16 @@
         <v>2021.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F44" s="1">
         <v>5.0</v>
@@ -1674,19 +1692,19 @@
         <v>2021.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F45" s="1">
-        <v>32.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
@@ -1694,19 +1712,19 @@
         <v>2021.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F46" s="1">
-        <v>2.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
@@ -1714,19 +1732,19 @@
         <v>2021.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F47" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
@@ -1734,19 +1752,19 @@
         <v>2021.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F48" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
@@ -1754,19 +1772,19 @@
         <v>2021.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F49" s="1">
-        <v>27.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
@@ -1774,19 +1792,19 @@
         <v>2021.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F50" s="1">
-        <v>8.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
@@ -1794,19 +1812,19 @@
         <v>2021.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F51" s="1">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
@@ -1814,19 +1832,19 @@
         <v>2021.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F52" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
@@ -1834,19 +1852,19 @@
         <v>2021.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F53" s="1">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
@@ -1854,19 +1872,19 @@
         <v>2021.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F54" s="1">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
@@ -1874,19 +1892,19 @@
         <v>2021.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F55" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
@@ -1894,16 +1912,16 @@
         <v>2021.0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F56" s="1">
         <v>1.0</v>
@@ -1914,19 +1932,19 @@
         <v>2021.0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F57" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
@@ -1934,19 +1952,19 @@
         <v>2021.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F58" s="1">
-        <v>20.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
@@ -1954,19 +1972,19 @@
         <v>2021.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F59" s="1">
-        <v>2.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
@@ -1974,19 +1992,19 @@
         <v>2021.0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F60" s="1">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
@@ -1994,19 +2012,19 @@
         <v>2021.0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F61" s="1">
-        <v>27.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
@@ -2014,19 +2032,19 @@
         <v>2021.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F62" s="1">
-        <v>8.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
@@ -2034,19 +2052,19 @@
         <v>2021.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F63" s="1">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
@@ -2054,16 +2072,16 @@
         <v>2021.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F64" s="1">
         <v>1.0</v>
@@ -2074,19 +2092,19 @@
         <v>2021.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F65" s="1">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
@@ -2094,19 +2112,19 @@
         <v>2021.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F66" s="1">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
@@ -2114,19 +2132,19 @@
         <v>2021.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F67" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
@@ -2134,19 +2152,19 @@
         <v>2021.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F68" s="1">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
@@ -2154,19 +2172,19 @@
         <v>2021.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F69" s="1">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
@@ -2174,19 +2192,19 @@
         <v>2021.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F70" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
@@ -2194,19 +2212,19 @@
         <v>2021.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F71" s="1">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
@@ -2214,19 +2232,19 @@
         <v>2021.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F72" s="1">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
@@ -2234,19 +2252,19 @@
         <v>2021.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F73" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
@@ -2254,19 +2272,19 @@
         <v>2021.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F74" s="1">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
@@ -2274,19 +2292,19 @@
         <v>2021.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F75" s="1">
-        <v>6.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
@@ -2294,19 +2312,19 @@
         <v>2021.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F76" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
@@ -2314,19 +2332,19 @@
         <v>2021.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F77" s="1">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
@@ -2334,19 +2352,19 @@
         <v>2021.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F78" s="1">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
@@ -2354,19 +2372,19 @@
         <v>2021.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F79" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
@@ -2374,16 +2392,16 @@
         <v>2021.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F80" s="1">
         <v>1.0</v>
@@ -2394,19 +2412,19 @@
         <v>2021.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F81" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
@@ -2414,19 +2432,19 @@
         <v>2021.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F82" s="1">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
@@ -2434,19 +2452,19 @@
         <v>2021.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F83" s="1">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
@@ -2454,19 +2472,19 @@
         <v>2021.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F84" s="1">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
@@ -2474,19 +2492,19 @@
         <v>2021.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F85" s="1">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
@@ -2494,16 +2512,16 @@
         <v>2021.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F86" s="1">
         <v>2.0</v>
@@ -2514,19 +2532,19 @@
         <v>2021.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F87" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
@@ -2534,19 +2552,19 @@
         <v>2021.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F88" s="1">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
@@ -2554,19 +2572,19 @@
         <v>2021.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F89" s="1">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
@@ -2574,19 +2592,19 @@
         <v>2021.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F90" s="1">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
@@ -2594,19 +2612,19 @@
         <v>2021.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F91" s="1">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
@@ -2614,19 +2632,19 @@
         <v>2021.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F92" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
@@ -2634,19 +2652,19 @@
         <v>2021.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F93" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
@@ -2654,16 +2672,16 @@
         <v>2021.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F94" s="1">
         <v>6.0</v>
@@ -2674,19 +2692,19 @@
         <v>2021.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F95" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
@@ -2694,16 +2712,16 @@
         <v>2021.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F96" s="1">
         <v>1.0</v>
@@ -2714,16 +2732,16 @@
         <v>2021.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F97" s="1">
         <v>1.0</v>
@@ -2734,19 +2752,19 @@
         <v>2021.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F98" s="1">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
@@ -2754,19 +2772,19 @@
         <v>2021.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F99" s="1">
-        <v>2.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
@@ -2774,19 +2792,19 @@
         <v>2021.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F100" s="1">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
@@ -2794,19 +2812,19 @@
         <v>2021.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F101" s="1">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
@@ -2814,16 +2832,16 @@
         <v>2021.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F102" s="1">
         <v>1.0</v>
@@ -2834,16 +2852,16 @@
         <v>2021.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F103" s="1">
         <v>1.0</v>
@@ -2854,16 +2872,16 @@
         <v>2021.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F104" s="1">
         <v>1.0</v>
@@ -2874,19 +2892,19 @@
         <v>2021.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F105" s="1">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
@@ -2894,19 +2912,19 @@
         <v>2021.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F106" s="1">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
@@ -2914,19 +2932,19 @@
         <v>2021.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F107" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
@@ -2934,19 +2952,19 @@
         <v>2021.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F108" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
@@ -2954,19 +2972,19 @@
         <v>2021.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F109" s="1">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
@@ -2974,19 +2992,19 @@
         <v>2021.0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F110" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
@@ -2994,19 +3012,19 @@
         <v>2021.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F111" s="1">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
@@ -3014,19 +3032,19 @@
         <v>2021.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F112" s="1">
-        <v>30.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
@@ -3034,19 +3052,19 @@
         <v>2021.0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F113" s="1">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
@@ -3054,19 +3072,19 @@
         <v>2021.0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F114" s="1">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
@@ -3074,19 +3092,19 @@
         <v>2021.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F115" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
@@ -3094,16 +3112,16 @@
         <v>2021.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F116" s="1">
         <v>1.0</v>
@@ -3114,19 +3132,19 @@
         <v>2021.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F117" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
@@ -3134,19 +3152,19 @@
         <v>2021.0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F118" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
@@ -3154,16 +3172,16 @@
         <v>2021.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F119" s="1">
         <v>1.0</v>
@@ -3174,19 +3192,19 @@
         <v>2021.0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F120" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
@@ -3194,19 +3212,19 @@
         <v>2021.0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F121" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
@@ -3214,19 +3232,19 @@
         <v>2021.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F122" s="1">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
@@ -3234,19 +3252,19 @@
         <v>2021.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F123" s="1">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
@@ -3254,19 +3272,19 @@
         <v>2021.0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F124" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
@@ -3274,16 +3292,16 @@
         <v>2021.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F125" s="1">
         <v>4.0</v>
@@ -3294,7 +3312,7 @@
         <v>2021.0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>24</v>
@@ -3303,10 +3321,10 @@
         <v>25</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F126" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
@@ -3314,19 +3332,19 @@
         <v>2021.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F127" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
@@ -3334,19 +3352,19 @@
         <v>2021.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F128" s="1">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
@@ -3354,19 +3372,19 @@
         <v>2021.0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F129" s="1">
-        <v>4.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
@@ -3374,19 +3392,19 @@
         <v>2021.0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F130" s="1">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
@@ -3394,19 +3412,19 @@
         <v>2021.0</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F131" s="1">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
@@ -3414,19 +3432,19 @@
         <v>2021.0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F132" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
@@ -3434,19 +3452,19 @@
         <v>2021.0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F133" s="1">
-        <v>21.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
@@ -3454,19 +3472,19 @@
         <v>2021.0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F134" s="1">
-        <v>5.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
@@ -3474,19 +3492,19 @@
         <v>2021.0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F135" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
@@ -3494,19 +3512,19 @@
         <v>2021.0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F136" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
@@ -3514,19 +3532,19 @@
         <v>2021.0</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F137" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
@@ -3534,19 +3552,19 @@
         <v>2021.0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F138" s="1">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
@@ -3554,19 +3572,19 @@
         <v>2021.0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F139" s="1">
-        <v>4.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
@@ -3574,19 +3592,19 @@
         <v>2021.0</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F140" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
@@ -3594,19 +3612,19 @@
         <v>2021.0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F141" s="1">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
@@ -3614,19 +3632,19 @@
         <v>2021.0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F142" s="1">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
@@ -3634,19 +3652,19 @@
         <v>2021.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F143" s="1">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
@@ -3654,16 +3672,16 @@
         <v>2021.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F144" s="1">
         <v>1.0</v>
@@ -3674,16 +3692,16 @@
         <v>2021.0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F145" s="1">
         <v>1.0</v>
@@ -3694,19 +3712,19 @@
         <v>2021.0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F146" s="1">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
@@ -3714,19 +3732,19 @@
         <v>2021.0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F147" s="1">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
@@ -3734,19 +3752,19 @@
         <v>2021.0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F148" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
@@ -3754,19 +3772,19 @@
         <v>2021.0</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F149" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
@@ -3774,19 +3792,19 @@
         <v>2021.0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F150" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1">
@@ -3794,16 +3812,16 @@
         <v>2021.0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F151" s="1">
         <v>3.0</v>
@@ -3814,16 +3832,16 @@
         <v>2021.0</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F152" s="1">
         <v>3.0</v>
@@ -3834,19 +3852,19 @@
         <v>2021.0</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F153" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1">
@@ -3854,19 +3872,19 @@
         <v>2021.0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F154" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
@@ -3874,16 +3892,16 @@
         <v>2021.0</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F155" s="1">
         <v>3.0</v>
@@ -3894,19 +3912,19 @@
         <v>2021.0</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F156" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
@@ -3914,19 +3932,19 @@
         <v>2021.0</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F157" s="1">
-        <v>27.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
@@ -3934,19 +3952,19 @@
         <v>2021.0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F158" s="1">
-        <v>5.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1">
@@ -3954,19 +3972,19 @@
         <v>2021.0</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F159" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1">
@@ -3974,19 +3992,19 @@
         <v>2021.0</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F160" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
@@ -3994,19 +4012,19 @@
         <v>2021.0</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F161" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1">
@@ -4014,19 +4032,19 @@
         <v>2021.0</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F162" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1">
@@ -4034,19 +4052,19 @@
         <v>2021.0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F163" s="1">
-        <v>28.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1">
@@ -4054,19 +4072,19 @@
         <v>2021.0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F164" s="1">
-        <v>5.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="165" ht="14.25" customHeight="1">
@@ -4074,19 +4092,19 @@
         <v>2021.0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F165" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1">
@@ -4094,16 +4112,16 @@
         <v>2021.0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F166" s="1">
         <v>6.0</v>
@@ -4114,19 +4132,19 @@
         <v>2021.0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F167" s="1">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
@@ -4134,19 +4152,19 @@
         <v>2021.0</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F168" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1">
@@ -4154,19 +4172,19 @@
         <v>2021.0</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F169" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="170" ht="14.25" customHeight="1">
@@ -4174,19 +4192,19 @@
         <v>2021.0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F170" s="1">
-        <v>39.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
@@ -4194,19 +4212,19 @@
         <v>2021.0</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F171" s="1">
-        <v>5.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1">
@@ -4214,19 +4232,19 @@
         <v>2021.0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F172" s="1">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
@@ -4234,19 +4252,19 @@
         <v>2021.0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F173" s="1">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1">
@@ -4254,19 +4272,19 @@
         <v>2021.0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F174" s="1">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1">
@@ -4274,16 +4292,16 @@
         <v>2021.0</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F175" s="1">
         <v>2.0</v>
@@ -4294,19 +4312,19 @@
         <v>2021.0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F176" s="1">
-        <v>30.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1">
@@ -4314,19 +4332,19 @@
         <v>2021.0</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F177" s="1">
-        <v>8.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1">
@@ -4334,19 +4352,19 @@
         <v>2021.0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F178" s="1">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="179" ht="14.25" customHeight="1">
@@ -4354,19 +4372,19 @@
         <v>2021.0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F179" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="180" ht="14.25" customHeight="1">
@@ -4374,19 +4392,19 @@
         <v>2021.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F180" s="1">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1">
@@ -4394,19 +4412,19 @@
         <v>2021.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F181" s="1">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
@@ -4414,19 +4432,19 @@
         <v>2021.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F182" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1">
@@ -4434,19 +4452,19 @@
         <v>2021.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F183" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="184" ht="14.25" customHeight="1">
@@ -4454,19 +4472,19 @@
         <v>2021.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F184" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="185" ht="14.25" customHeight="1">
@@ -4474,19 +4492,19 @@
         <v>2021.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F185" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1">
@@ -4494,19 +4512,19 @@
         <v>2021.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F186" s="1">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="187" ht="14.25" customHeight="1">
@@ -4514,19 +4532,19 @@
         <v>2021.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F187" s="1">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="188" ht="14.25" customHeight="1">
@@ -4534,19 +4552,19 @@
         <v>2021.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F188" s="1">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="189" ht="14.25" customHeight="1">
@@ -4554,19 +4572,19 @@
         <v>2021.0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F189" s="1">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1">
@@ -4574,19 +4592,19 @@
         <v>2021.0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F190" s="1">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="191" ht="14.25" customHeight="1">
@@ -4594,16 +4612,16 @@
         <v>2021.0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F191" s="1">
         <v>2.0</v>
@@ -4614,19 +4632,19 @@
         <v>2021.0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F192" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="193" ht="14.25" customHeight="1">
@@ -4634,19 +4652,19 @@
         <v>2021.0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F193" s="1">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1">
@@ -4654,19 +4672,19 @@
         <v>2021.0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F194" s="1">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="195" ht="14.25" customHeight="1">
@@ -4674,19 +4692,19 @@
         <v>2021.0</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F195" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="196" ht="14.25" customHeight="1">
@@ -4694,19 +4712,19 @@
         <v>2021.0</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F196" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="197" ht="14.25" customHeight="1">
@@ -4714,19 +4732,19 @@
         <v>2021.0</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F197" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="198" ht="14.25" customHeight="1">
@@ -4734,16 +4752,16 @@
         <v>2021.0</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F198" s="1">
         <v>1.0</v>
@@ -4754,16 +4772,16 @@
         <v>2021.0</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F199" s="1">
         <v>1.0</v>
@@ -4774,19 +4792,19 @@
         <v>2021.0</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F200" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="201" ht="14.25" customHeight="1">
@@ -4794,19 +4812,19 @@
         <v>2021.0</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F201" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="202" ht="14.25" customHeight="1">
@@ -4814,19 +4832,19 @@
         <v>2021.0</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F202" s="1">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="203" ht="14.25" customHeight="1">
@@ -4834,19 +4852,19 @@
         <v>2021.0</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F203" s="1">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1">
@@ -4854,19 +4872,19 @@
         <v>2021.0</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F204" s="1">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1">
@@ -4874,19 +4892,19 @@
         <v>2021.0</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F205" s="1">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1">
@@ -4894,19 +4912,19 @@
         <v>2021.0</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F206" s="1">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="207" ht="14.25" customHeight="1">
@@ -4914,19 +4932,19 @@
         <v>2021.0</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F207" s="1">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="208" ht="14.25" customHeight="1">
@@ -4934,18 +4952,38 @@
         <v>2021.0</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F208" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="209" ht="14.25" customHeight="1">
+      <c r="A209" s="1">
+        <v>2021.0</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" s="1">
         <v>5.0</v>
       </c>
     </row>
